--- a/python/two/night Error t1=6 t2=3 δ=0.8.xlsx
+++ b/python/two/night Error t1=6 t2=3 δ=0.8.xlsx
@@ -470,16 +470,16 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>5.96</v>
       </c>
       <c r="D2" t="n">
-        <v>0.000121</v>
+        <v>-0.597</v>
       </c>
       <c r="E2" t="n">
-        <v>6.04</v>
+        <v>3.13</v>
       </c>
       <c r="F2" t="n">
-        <v>0.587</v>
+        <v>-47.8</v>
       </c>
     </row>
     <row r="3">
@@ -492,16 +492,16 @@
         <v>3</v>
       </c>
       <c r="C3" t="n">
-        <v>3.22</v>
+        <v>5.18</v>
       </c>
       <c r="D3" t="n">
-        <v>7.22</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>2.82</v>
+        <v>5.93</v>
       </c>
       <c r="F3" t="n">
-        <v>-5.99</v>
+        <v>97.59999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -514,16 +514,16 @@
         <v>0.0001</v>
       </c>
       <c r="C4" t="n">
+        <v>0.000101</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.859</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.0001</v>
       </c>
-      <c r="D4" t="n">
-        <v>2.5e-05</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.000101</v>
-      </c>
       <c r="F4" t="n">
-        <v>1.19</v>
+        <v>0.318</v>
       </c>
     </row>
     <row r="5">
@@ -536,16 +536,16 @@
         <v>0.8</v>
       </c>
       <c r="C5" t="n">
-        <v>0.795</v>
+        <v>0.991</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.634</v>
+        <v>23.8</v>
       </c>
       <c r="E5" t="n">
-        <v>0.716</v>
+        <v>0.000659</v>
       </c>
       <c r="F5" t="n">
-        <v>-10.5</v>
+        <v>-99.90000000000001</v>
       </c>
     </row>
     <row r="6">
@@ -567,7 +567,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>-3.75e-05</v>
+        <v>-1.11e-14</v>
       </c>
     </row>
     <row r="7">
@@ -580,7 +580,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>4.1e-06</v>
+        <v>129000</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -588,7 +588,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>178000</v>
+        <v>157000</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -606,7 +606,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>2.1e-08</v>
+        <v>662</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -614,7 +614,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>915</v>
+        <v>806</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
